--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Montag</t>
   </si>
@@ -71,12 +71,6 @@
     <t>09:00 - 18:00</t>
   </si>
   <si>
-    <t>- Kamerafahrten
-- abstrakte Szenen
-- erste Beleuchtung
-- Modelle beginnen</t>
-  </si>
-  <si>
     <t>- Szenen beenden
 - Beleuchtung optimieren</t>
   </si>
@@ -90,9 +84,6 @@
   <si>
     <t>- Beleuchtungsbeispiele beenden
 - Animationen beginnen</t>
-  </si>
-  <si>
-    <t>09:00 - 14:00</t>
   </si>
   <si>
     <t>- Animationen besprechen / verfeinern
@@ -124,6 +115,18 @@
   </si>
   <si>
     <t>Präsentation</t>
+  </si>
+  <si>
+    <t>08:00 - 12:00</t>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+  </si>
+  <si>
+    <t>- Kamerafahrten
+- abstrakte Szenen
+- erste Beleuchtung
+- Modelle zuteilen</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,88 +610,97 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -991,7 +1003,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1071,40 +1083,40 @@
         <v>10</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="19.8" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="25"/>
@@ -1162,45 +1174,45 @@
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="19.8" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="38"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13" s="25"/>
@@ -1249,56 +1261,58 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="H15" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="45" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" ht="19.8" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="38"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="41"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="25"/>
@@ -1347,7 +1361,7 @@
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="29"/>
@@ -1357,42 +1371,42 @@
         <v>10</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="52" t="s">
-        <v>26</v>
+      <c r="C22" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="35"/>
+      <c r="F22" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="19.8" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="38"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="47"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="25"/>
@@ -1448,8 +1462,8 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="51" t="s">
-        <v>30</v>
+      <c r="D28" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1462,7 +1476,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1474,7 +1488,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1482,21 +1496,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D16:E18"/>
-    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D4:H6"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D16:E18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
